--- a/diogo/Aula 4 - Auditoria de Fórmulas e Funções de Data.xlsx
+++ b/diogo/Aula 4 - Auditoria de Fórmulas e Funções de Data.xlsx
@@ -50,7 +50,7 @@
     <definedName name="Tabela5" localSheetId="7">#REF!</definedName>
     <definedName name="Tabela5" localSheetId="9">#REF!</definedName>
     <definedName name="Tabela5">#REF!</definedName>
-    <definedName name="tabferiados">'HONORÁRIO FREELANCER'!$A$13:$A$17</definedName>
+    <definedName name="tabferiados">'HONORÁRIO FREELANCER'!$A$10:$A$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -178,31 +178,22 @@
     <t>DIAS(B1;B2)</t>
   </si>
   <si>
-    <t>Data inicial</t>
-  </si>
-  <si>
-    <t>Data final</t>
-  </si>
-  <si>
-    <t>Valor hora</t>
-  </si>
-  <si>
-    <t>Valor hora 01/04/2019</t>
-  </si>
-  <si>
     <t>Dias trabalhados</t>
   </si>
   <si>
-    <t>Horas trabalhadas salarário 55,00</t>
-  </si>
-  <si>
-    <t>Data final salário 55,00</t>
-  </si>
-  <si>
-    <t>Horas trabalhadas salarário 65,00</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Data inicial - salário 55,00</t>
+  </si>
+  <si>
+    <t>Data inicial - salário 65,00</t>
+  </si>
+  <si>
+    <t>Total - salário 55,00</t>
+  </si>
+  <si>
+    <t>Total - salário 65,00</t>
   </si>
 </sst>
 </file>
@@ -211,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +227,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -359,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -449,7 +454,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -943,7 +965,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1067,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,108 +1111,97 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="38">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="38">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B3" s="39">
+        <f>NETWORKDAYS(B1,EOMONTH(B1,2),tabferiados)+NETWORKDAYS(B2,EOMONTH(B2,1),tabferiados)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="37">
+        <f>NETWORKDAYS(B1,EOMONTH(B1,2),tabferiados)*(4*55)</f>
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="37">
+        <f>NETWORKDAYS(B2,EOMONTH(B2,1),tabferiados)*(4*65)</f>
+        <v>11180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="37">
+        <f>NETWORKDAYS(B1,EOMONTH(B1,2),tabferiados)*(4*55)+NETWORKDAYS(B2,EOMONTH(B2,1),tabferiados)*(4*65)</f>
+        <v>25040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>43466</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="1">
-        <f>EOMONTH(B1,3)</f>
-        <v>43585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1">
-        <f>EOMONTH(B1,4)</f>
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="35">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="35">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <f>NETWORKDAYS.INTL(B1,B3,1,tabferiados)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="35">
-        <f>NETWORKDAYS.INTL(B1,B2,1,tabferiados)*(4*55)</f>
-        <v>18920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="35">
-        <f>NETWORKDAYS.INTL(B2,B3,1,tabferiados)*(4*65)</f>
-        <v>6240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="35">
-        <f>NETWORKDAYS.INTL(B1,B2,1,tabferiados)*(4*55)+NETWORKDAYS.INTL(B2,B3,1,tabferiados)*(4*65)</f>
-        <v>25160</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>43574</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43498</v>
+      <c r="A12" s="7">
+        <v>43586</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1545,7 +1556,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
